--- a/data/trans_camb/P31_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_4_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,06</t>
+          <t>-16,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-28,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-8,93</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-11,68</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 19,93</t>
+          <t>-22,11; 8,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 4,26</t>
+          <t>-36,2; 0,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 7,94</t>
+          <t>-51,04; -10,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 5,1</t>
+          <t>-9,13; 12,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 10,94</t>
+          <t>-14,43; 9,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 1,77</t>
+          <t>-6,38; 14,47</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-10,56; 7,62</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-20,23; 1,4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-25,45; -0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>-6,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>-17,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>-30,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,08%</t>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-9,65%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-12,63%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 28,39</t>
+          <t>-23,63; 9,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 5,7</t>
+          <t>-37,68; 0,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 8,88</t>
+          <t>-52,82; -12,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 5,4</t>
+          <t>-9,48; 14,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 13,12</t>
+          <t>-14,99; 10,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 1,9</t>
+          <t>-6,4; 17,17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 8,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-21,25; 1,61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-27,18; -0,46</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-8,2</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-4,28</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 9,07</t>
+          <t>-18,29; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 7,71</t>
+          <t>-12,78; 5,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,14</t>
+          <t>-7,79; 8,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,39</t>
+          <t>-7,89; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 5,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 5,3</t>
+          <t>-26,02; 0,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 0,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,17; 2,34</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-12,58; 1,29</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>-0,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>-8,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,83%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-3,92%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 10,62</t>
+          <t>-18,49; 4,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 8,82</t>
+          <t>-13,22; 6,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 5,43</t>
+          <t>-7,84; 9,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 9,15</t>
+          <t>-7,89; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 6,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 5,85</t>
+          <t>-26,02; 0,0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 0,47</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 2,42</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 1,3</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 10,71</t>
+          <t>-9,49; 12,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 9,07</t>
+          <t>-17,27; 5,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,95</t>
+          <t>-16,89; 8,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 8,4</t>
+          <t>1,03; 11,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 7,95</t>
+          <t>-3,85; 8,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 5,81</t>
+          <t>-4,4; 7,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 8,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 4,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,26; 5,33</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-5,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>-3,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,49%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-1,08%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 13,06</t>
+          <t>-10,13; 14,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 10,63</t>
+          <t>-18,7; 6,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 11,04</t>
+          <t>-18,15; 10,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 9,29</t>
+          <t>1,04; 13,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 8,86</t>
+          <t>-3,87; 9,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 6,46</t>
+          <t>-4,42; 8,71</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 9,65</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 5,33</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 5,79</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 10,57</t>
+          <t>-5,59; 11,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 10,22</t>
+          <t>-7,26; 10,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 9,67</t>
+          <t>-4,31; 12,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 9,65</t>
+          <t>-4,62; 3,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 7,2</t>
+          <t>-5,18; 3,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 7,07</t>
+          <t>-3,82; 4,11</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 5,58</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 4,02</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 5,76</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 12,39</t>
+          <t>-5,83; 13,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 12,18</t>
+          <t>-7,73; 12,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 10,97</t>
+          <t>-4,46; 14,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 11,04</t>
+          <t>-4,68; 4,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 8,02</t>
+          <t>-5,26; 3,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 7,91</t>
+          <t>-3,86; 4,3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 6,09</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 4,32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 6,24</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 3,36</t>
+          <t>-26,42; 5,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 6,76</t>
+          <t>-1,9; 12,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,23</t>
+          <t>-19,39; 6,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,36</t>
+          <t>0,0; 9,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 2,1</t>
+          <t>0,0; 9,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,05</t>
+          <t>-3,2; 5,89</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-19,07; 4,5</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 7,99</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-11,85; 4,62</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>-5,6%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-2,72%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 3,53</t>
+          <t>-27,43; 6,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 7,54</t>
+          <t>-1,74; 14,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,52</t>
+          <t>-20,71; 7,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>0,0; 10,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 2,18</t>
+          <t>0,0; 10,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,27</t>
+          <t>-3,21; 6,32</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,48; 4,82</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 8,9</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; 4,95</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,0</t>
+          <t>-11,45; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 0,0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-1,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-1,46%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,0</t>
+          <t>-11,45; 0,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 0,0</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,82</t>
+          <t>-7,66; 1,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1,91</t>
+          <t>-8,97; 0,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,71</t>
+          <t>-8,75; 0,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,96</t>
+          <t>-1,47; 3,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,2</t>
+          <t>-2,6; 2,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,39</t>
+          <t>-3,33; 2,23</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 1,85</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 1,08</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 0,69</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>-2,54%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-3,89%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
           <t>1,05%</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-2,57%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-1,75%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,4</t>
+          <t>-8,07; 1,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,1</t>
+          <t>-9,55; 0,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,91</t>
+          <t>-9,16; 0,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,12</t>
+          <t>-1,49; 3,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,44</t>
+          <t>-2,64; 2,62</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,48</t>
+          <t>-3,41; 2,34</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 1,96</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 1,14</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 0,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
